--- a/BalanceSheet/AJG_bal.xlsx
+++ b/BalanceSheet/AJG_bal.xlsx
@@ -4211,7 +4211,7 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>195887000.0</v>
+        <v>195900000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>193700000.0</v>
@@ -4464,10 +4464,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B33" s="0" t="n">
+        <v>1005400000.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1380000000.0</v>
@@ -4593,10 +4591,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B34" s="0" t="n">
+        <v>4366300000.0</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>4954000000.0</v>
